--- a/2 LCA/CG_CCS_import.xlsx
+++ b/2 LCA/CG_CCS_import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\2 Paper\2 Ammonia\2 Python\4 code\1 data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\3 python\Ammonia\2 LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA8B23D-798C-4F6A-8D1C-073F1CFEB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98FB37-F612-47C9-801E-272D8064DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="170">
   <si>
     <t>cutoff</t>
   </si>
@@ -690,6 +690,10 @@
   </si>
   <si>
     <t>The calculation method of CO2 emission in synthetic ammonia production HG/T 4487-201217.</t>
+  </si>
+  <si>
+    <t>Ren et.al., 2021, Journal of Cleaner Production；Wang, et al., 2019, Nitrogenous Fertilizer Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -810,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,8 +836,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1476,7 @@
       <c r="G26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1834,30 +1836,30 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="1">
         <f>1.31/1000</f>
         <v>1.31E-3</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" t="s">
         <v>94</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2294,29 +2296,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="1">
         <v>0.34100000000000003</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2471,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -2498,7 +2500,7 @@
         <v>19</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/2 LCA/CG_CCS_import.xlsx
+++ b/2 LCA/CG_CCS_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\3 python\Ammonia\2 LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98FB37-F612-47C9-801E-272D8064DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF9706C-2FC8-4B6B-95D0-4D7ECFDCD7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <t>The calculation method of CO2 emission in synthetic ammonia production HG/T 4487-201217.</t>
   </si>
   <si>
-    <t>Ren et.al., 2021, Journal of Cleaner Production；Wang, et al., 2019, Nitrogenous Fertilizer Technology</t>
+    <t>Ren et.al., 2021, Journal of Cleaner Production；Wang, et al., 2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
